--- a/uploads/rbt_system/rbt/rbt.xlsx
+++ b/uploads/rbt_system/rbt/rbt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XAMPP\htdocs\rbt_system\uploads\rbt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp7.3\htdocs\rbt_system_php7\uploads\rbt_system\rbt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +432,11 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"Occasion1, Occasion2, Occasion3"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
